--- a/Excel_to_XML/product/data_simplified.xlsx
+++ b/Excel_to_XML/product/data_simplified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ForMac/UserData/Bach Khoa/192/Xử lý số tín hiệu/Mở rộng_Nguyễn Thanh Tuấn/product/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ForMac/UserData/Bach Khoa/192/Xử lý số tín hiệu/MR_Nguyễn Thanh Tuấn/product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64FC1FD-267A-1A4C-9EC7-75AB312F3917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3C18DC-5F08-3F40-9DB2-43203EAABF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="960" windowWidth="27140" windowHeight="16540" xr2:uid="{0EA3D5A7-615E-4B41-8548-A94B01DDECDF}"/>
+    <workbookView xWindow="1280" yWindow="960" windowWidth="24300" windowHeight="16540" xr2:uid="{0EA3D5A7-615E-4B41-8548-A94B01DDECDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Chỉ tiêu</t>
   </si>
@@ -187,6 +187,69 @@
   </si>
   <si>
     <t>NGUYỄN THỊ NGOẠI KHOA</t>
+  </si>
+  <si>
+    <t>Chưa xác định</t>
+  </si>
+  <si>
+    <t>BN123123</t>
+  </si>
+  <si>
+    <t>BN123124</t>
+  </si>
+  <si>
+    <t>DKBD1000</t>
+  </si>
+  <si>
+    <t>DKBD1001</t>
+  </si>
+  <si>
+    <t>BENH22222</t>
+  </si>
+  <si>
+    <t>BENHKHAC22222</t>
+  </si>
+  <si>
+    <t>BENH22223</t>
+  </si>
+  <si>
+    <t>BENHKHAC22223</t>
+  </si>
+  <si>
+    <t>NOICHUYEN12345</t>
+  </si>
+  <si>
+    <t>NOICHUYEN12346</t>
+  </si>
+  <si>
+    <t>Trốn viện</t>
+  </si>
+  <si>
+    <t>LK123123</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>KHOA123</t>
+  </si>
+  <si>
+    <t>CSKCB123</t>
+  </si>
+  <si>
+    <t>CSKCB124</t>
+  </si>
+  <si>
+    <t>PTTT123</t>
+  </si>
+  <si>
+    <t>PTTT124</t>
+  </si>
+  <si>
+    <t>LK123122</t>
   </si>
 </sst>
 </file>
@@ -245,11 +308,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +632,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -580,13 +643,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -594,11 +657,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>123123</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123123</v>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -616,11 +679,11 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>123123</v>
-      </c>
-      <c r="C4" s="2">
-        <v>123123</v>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -638,11 +701,11 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>34820</v>
-      </c>
-      <c r="C6" s="2">
-        <v>34821</v>
+      <c r="B6" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C6" s="6">
+        <v>36526</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -653,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -682,44 +745,44 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1000</v>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
-        <v>34820</v>
-      </c>
-      <c r="C11" s="2">
-        <v>34820</v>
+      <c r="B11" s="6">
+        <v>36863</v>
+      </c>
+      <c r="C11" s="6">
+        <v>36863</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
-        <v>34820</v>
-      </c>
-      <c r="C12" s="2">
-        <v>34820</v>
+      <c r="B12" s="6">
+        <v>36863</v>
+      </c>
+      <c r="C12" s="6">
+        <v>36863</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
-        <v>34820</v>
-      </c>
-      <c r="C13" s="2">
-        <v>34820</v>
+      <c r="B13" s="6">
+        <v>36864</v>
+      </c>
+      <c r="C13" s="6">
+        <v>36865</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -737,22 +800,22 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
-        <v>22222</v>
-      </c>
-      <c r="C15" s="2">
-        <v>22222</v>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
-        <v>22222</v>
-      </c>
-      <c r="C16" s="2">
-        <v>22222</v>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -770,11 +833,11 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
-        <v>12345</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12345</v>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -792,31 +855,28 @@
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4">
-        <v>201505010000</v>
-      </c>
-      <c r="C20" s="4">
-        <v>201505010000</v>
+      <c r="B20" s="6">
+        <v>36863</v>
+      </c>
+      <c r="C20" s="6">
+        <v>36863</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4">
-        <v>201505120000</v>
-      </c>
-      <c r="C21" s="4">
-        <v>201505120000</v>
+      <c r="B21" s="6">
+        <v>36863</v>
+      </c>
+      <c r="C21" s="6">
+        <v>36863</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2">
-        <v>11</v>
-      </c>
       <c r="C22" s="2">
         <v>11</v>
       </c>
@@ -840,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -979,44 +1039,44 @@
       <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="2">
-        <v>123</v>
-      </c>
-      <c r="C37" s="2">
-        <v>123</v>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="2">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2">
-        <v>123</v>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2">
-        <v>123</v>
-      </c>
-      <c r="C39" s="2">
-        <v>123</v>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="2">
-        <v>123</v>
-      </c>
-      <c r="C40" s="2">
-        <v>123</v>
+      <c r="B40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1024,7 +1084,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="2">
-        <v>123</v>
+        <v>5.75</v>
       </c>
       <c r="C41" s="2">
         <v>123</v>
@@ -1038,7 +1098,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:C23" xr:uid="{B7CAB756-635F-0E4A-98DA-959920A31BB6}">
       <formula1>"Khỏi,Đỡ,Không thay đổi,Nặng hơn,Tử vong"</formula1>
     </dataValidation>
@@ -1051,6 +1111,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:C17" xr:uid="{9804B96F-68C8-D94A-85E7-640DB83BA609}">
       <formula1>"Đúng tuyến,Cấp cứu,Trái tuyến,Thông tuyến"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{441B7342-29B0-E046-859A-030AE35FDFF7}">
+      <formula1>"Nam,Nữ,Chưa xác định"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:C39" xr:uid="{338D3C82-563F-5340-92B9-22AB0398EB46}">
+      <formula1>"K1,K2,K3"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
